--- a/output/3_Regression/analysis_01/h19/coef_rf_bayes_h19.xlsx
+++ b/output/3_Regression/analysis_01/h19/coef_rf_bayes_h19.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_2</t>
+          <t>Core CPI - Services - Dining Out_lag_1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.120263353906205</v>
+        <v>0.07044975583457355</v>
       </c>
     </row>
     <row r="3">
@@ -468,2148 +468,2148 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1450263606433352</v>
+        <v>0.1218610385311172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_1</t>
+          <t>Core CPI - Services - Dining Out_lag_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1160509206059108</v>
+        <v>0.1297732220340251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0113721602648657</v>
+        <v>0.01948404574342118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.03135479771185276</v>
+        <v>0.0344450813159546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05511874719462632</v>
+        <v>0.0171849550859389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01649675542041246</v>
+        <v>0.02499696517172504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.01624581490638879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01671436503698103</v>
+        <v>0.01698670780967407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0534257139945289</v>
+        <v>0.007629225600698041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+          <t>Terms of Trade - Imports_lag_2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06128553125963945</v>
+        <v>0.007872198573335541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.006028540874752238</v>
+        <v>0.02231707805228497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Monetary Policy Rate_lag_3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01001662789588263</v>
+        <v>0.0056901019164974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_3</t>
+          <t>Terms of Trade - Exports_lag_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.005719770019878518</v>
+        <v>0.006305997452862914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+          <t>Terms of Trade - Imports_lag_1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007757630105210893</v>
+        <v>0.01085224099761226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+          <t>Terms of Trade - Imports_lag_3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0004861282251132332</v>
+        <v>0.008382341387607104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_1</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.02632575767789744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001235679540220173</v>
+        <v>0.005874703573222217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+          <t>Electricity Production - Lima (GWh)_lag_2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01916159755643687</v>
+        <v>0.0127637977861229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.005266654502547238</v>
+        <v>0.003453913301110678</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.006735366328374929</v>
+        <v>0.003720437829301467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.007125589363687655</v>
+        <v>0.00391751123437453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03753441380523265</v>
+        <v>0.003125816209552792</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.000860914038230085</v>
+        <v>0.0001764238091613713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.002628750148858029</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_1</t>
+          <t>GDP Growth - Commerce (annual %)_lag_3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.007079339975720546</v>
+        <v>0.0009484870501780758</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001126483819666247</v>
+        <v>0.03666006972722582</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001963274432373941</v>
+        <v>0.002589379800845633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.00233502361402834</v>
+        <v>0.01797513675356196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_2</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001479421075243076</v>
+        <v>0.01327072245128136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.001071585732533402</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_3</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004242197492993605</v>
+        <v>0.000758369947288559</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_2</t>
+          <t>Employment Ratio (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.00320790052667838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.003534548556345164</v>
+        <v>0.009188422845397511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.001216728622710506</v>
+        <v>0.0005097944943694602</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0110415444285786</v>
+        <v>0.001871301721067821</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.001995109565918616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_3</t>
+          <t>General Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.003376223882093193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.006907691059617696</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.0001308140206171731</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01892421381709122</v>
+        <v>0.003238667529966006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_1</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.003694397063145748</v>
+        <v>0.0102453592939029</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_3</t>
+          <t>GDP - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.002372072444458047</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_2</t>
+          <t>Underemployed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.0003848446037878965</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.001333455462897407</v>
+        <v>0.00114660148220323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.0008853915363641086</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0009536735587552613</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.003157338376621981</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0007676468200756824</v>
+        <v>0.006564148096177936</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Business Expectations - Demand (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.00487238833309628</v>
+        <v>0.003195773998455831</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.008347598888087561</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.005375457720431849</v>
+        <v>0.006622734223878056</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.003874347924414804</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.001774551906099195</v>
+        <v>6.008921929693899e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.001483872619967162</v>
+        <v>0.002964615142439043</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0002341471010881394</v>
+        <v>0.0008344356395865923</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.003548448901170773</v>
+        <v>0.00167456499794277</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.002621967355849564</v>
+        <v>1.918601325966866e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_1</t>
+          <t>GDP - Fishing_lag_1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.000402378849079053</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.0004170044158894288</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.02223577513027133</v>
+        <v>0.0005947071848865116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.001068845031360972</v>
+        <v>0.002860531199886213</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.00200821411008509</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.004418646437624495</v>
+        <v>0.002035867998463855</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.003249182186369444</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0004049024751870797</v>
+        <v>0.0009954769247750199</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0001476887947192114</v>
+        <v>0.00071726003852522</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.001270629450397392</v>
+        <v>0.0002520727342364333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Monetary Policy Rate_lag_2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.00613452454481151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_2</t>
+          <t>GDP Growth - Commerce (annual %)_lag_2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.002426586971075679</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001463751571639642</v>
+        <v>0.001277575433288591</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.002280022149906847</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+          <t>Wheat Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.002106771702780174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.001248927951953793</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_3</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2.569725402857279e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.002102217592839849</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.004833305841644228</v>
+        <v>0.0005180826509929306</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_1</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.001486393306724533</v>
+        <v>0.0001181741311010117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>9.388931063883214e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.001597163535453028</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0006498278918278266</v>
+        <v>0.0006037301590708915</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.000316791104453291</v>
+        <v>0.01531687512473474</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+          <t>Business Expectations - Economy (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0001345300889438664</v>
+        <v>0.002281010623384518</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.00105172368758197</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+          <t>Chicken Placements (thousands)_lag_2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0003693576351346961</v>
+        <v>0.003627835004352415</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.0006811806311388449</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.01218984732545071</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_1</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.00603354820282365</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.006684855287749883</v>
+        <v>0.0003052547377920306</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.002478584695269483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+          <t>Gold (US$ per oz troy)_lag_2</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.0004951539023199036</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.001541611031061093</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>5.285030728153935e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.000741882036314202</v>
+        <v>0.002949552423341093</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_1</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.000241856077909443</v>
+        <v>0.009199063082207875</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0002799705747776303</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.001035688760855986</v>
+        <v>0.0002183992551934532</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0002543964749097995</v>
+        <v>0.002869025286954657</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+          <t>Monetary Policy Rate_lag_1</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.146235063930833e-05</v>
+        <v>0.002519493225949638</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_2</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0002180574440819045</v>
+        <v>0.00202732556575883</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.006451710540419071</v>
+        <v>0.0009172260586751131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0005196945985327518</v>
+        <v>0.0004950278552717099</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.0002001165474247186</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_1</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.001191427312076135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0006417702080898249</v>
+        <v>0.0006258236504556352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0009312012112314542</v>
+        <v>0.002830985023307294</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0008785173270396168</v>
+        <v>0.0006786975893118986</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.0002128957930655405</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.000498377430313116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+          <t>GDP - Agriculture_lag_3</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0003871467614316644</v>
+        <v>0.000529461356734794</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.002758555293912445</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_3</t>
+          <t>Corn Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0002372267854675123</v>
+        <v>0.001880511467375512</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0004894792053010278</v>
+        <v>0.006085501255049856</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_1</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.02807575837947014</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.001954844161835181</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0001014000877568198</v>
+        <v>0.000725051464774227</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_2</t>
+          <t>Business Expectations - Economy (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0004124388445150236</v>
+        <v>0.002609944988851967</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0006589114292908539</v>
+        <v>0.001267398273360169</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+          <t>Copper Price (¢US$ per lb)_lag_2</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.0003289099447536859</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_3</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0003058326243538054</v>
+        <v>0.0008314532664349362</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.001368432783557692</v>
+        <v>0.0006209483818118356</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.000828667448490275</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.002016220895927557</v>
+        <v>0.003502395740377166</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_2</t>
+          <t>GDP - Mining_lag_1</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0008803234351274863</v>
+        <v>0.001910038287819179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0005233865450170415</v>
+        <v>0.002057161485836061</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.0002408078603964234</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0003478604724635501</v>
+        <v>0.0004424472355275745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.03619629677610486</v>
+        <v>0.001446206057642163</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_2</t>
+          <t>GDP - Construction_lag_1</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.0002735240361408643</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.0007944358713090174</v>
+        <v>0.0005994027968896477</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.004502193620232788</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+          <t>GDP - Fishing_lag_3</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.001861949611131421</v>
+        <v>0.002255857788690134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_3</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.003533668730200406</v>
+        <v>0.003387216891908661</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.007111380457367715</v>
+        <v>0.001135348774798193</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+          <t>GDP - Construction_lag_2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.000471149401006165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.0005105050792824871</v>
+        <v>0.0002635311525278043</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.006588149120641105</v>
+        <v>0.002194443861375069</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+          <t>Business Expectations - Sector (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.003875200001481803</v>
+        <v>0.0009593458028903628</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.00227177277655632</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.000143302495870326</v>
+        <v>0.0008867153815932321</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+          <t>Corn Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.001097644773493861</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0008010231385307242</v>
+        <v>0.0003812800932748291</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.001172438276963735</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+          <t>Labor Force (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.01814446285471746</v>
+        <v>0.002089584213808821</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_2</t>
+          <t>GDP - Construction_lag_3</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.0003882434954611297</v>
+        <v>0.0001417463775981222</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.004401694478634978</v>
+        <v>0.001690693534613742</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_3</t>
+          <t>Private Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.0008593615046368225</v>
+        <v>0.007654593020971922</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.002271772307276991</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.0001934565600465661</v>
+        <v>0.001579861930754693</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.0001591583541331714</v>
+        <v>0.001449448181364838</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.002877160684631625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0009231063696555044</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.001435067912462758</v>
+        <v>0.001737844660731836</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_3</t>
+          <t>GDP - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.00597429260600791</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0001505968558355183</v>
+        <v>0.001902139289810189</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.006266780149691667</v>
+        <v>0.001122365560388584</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0004718341495951557</v>
+        <v>0.001304268600904007</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0005904839014468505</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2.869505809799914e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+          <t>GDP - Fishing_lag_2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.0002416417104696447</v>
+        <v>0.0002512876363227428</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.001112760334711066</v>
+        <v>0.0003234248084006376</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.0002417313711372965</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_1</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.000955966735710847</v>
+        <v>0.0007688203879126412</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_3</t>
+          <t>GDP - Agriculture_lag_1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.004843553484041012</v>
+        <v>0.0002365606201970853</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.002669637674131614</v>
+        <v>0.002551989620708218</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.003661351607655558</v>
+        <v>0.00176285468888056</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2618,288 +2618,288 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.0003084229578153118</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+          <t>Business Expectations - Sector (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.001393020633792967</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.0009659737396611054</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.00605018833420908</v>
+        <v>1.954581432489398e-05</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.006836040091311258</v>
+        <v>0.000276935895006695</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Orders (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.001572138788370857</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0007416618487049765</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_3</t>
+          <t>Chicken Placements (thousands)_lag_3</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.000219768587681462</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.002751810788652652</v>
+        <v>0.0004223541649708359</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.0005096345322453924</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_2</t>
+          <t>Underemployed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.001489445448447361</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.01237727709391477</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.001924192875403171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+          <t>Gold (US$ per oz troy)_lag_1</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.002365749194842221</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.00055730898882033</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Labor Force (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0002330181328050015</v>
+        <v>0.0002149899552202877</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_1</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.001461307227556872</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_2</t>
+          <t>GDP - Mining_lag_3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0009200589801489172</v>
+        <v>0.0002413145285543015</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.001696886643018144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+          <t>GDP - Agriculture_lag_2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.0007584579123030902</v>
+        <v>0.004026162458455365</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_1</t>
+          <t>GDP - Other Services (index 2007=100)_lag_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>3.817498461130075e-05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_2</t>
+          <t>GDP - Mining_lag_2</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.0004538049191587052</v>
       </c>
     </row>
   </sheetData>
